--- a/AOBNOBAMX.xlsx
+++ b/AOBNOBAMX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Desktop\UofG\PhD\0. AOB&amp;NOB sim\SIM\Granule\0. AOBNOBAMX\BaseCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840B8B20-0E3D-4B84-8A68-7A22F99D55DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E7745-35F6-4A83-A224-CBFD2E2198FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="18" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="Diffusion" sheetId="28" r:id="rId10"/>
     <sheet name="Tolerances" sheetId="29" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -109,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1023,6 +1020,9 @@
   </si>
   <si>
     <t>Tol_r_Na</t>
+  </si>
+  <si>
+    <t>dT_backup</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -2557,9 +2557,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2610,6 +2607,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3039,45 +3045,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reactions"/>
-      <sheetName val="SpecParam"/>
-      <sheetName val="ReactionMatrix"/>
-      <sheetName val="States"/>
-      <sheetName val="Influent"/>
-      <sheetName val="ThermoParam"/>
-      <sheetName val="Bacteria"/>
-      <sheetName val="Parameters"/>
-      <sheetName val="Discretization"/>
-      <sheetName val="Diffusion"/>
-      <sheetName val="Tolerances"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="B6">
-            <v>1E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Eloi Martínez-Rabert (PGR)" id="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" userId="S::2424069M@student.gla.ac.uk::cb616271-4a7a-48f5-8972-853218eda004" providerId="AD"/>
@@ -3475,30 +3442,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="236" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236" t="s">
+      <c r="S2" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="236" t="s">
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="236"/>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236" t="s">
+      <c r="AB2" s="235"/>
+      <c r="AC2" s="235"/>
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="236"/>
-      <c r="AG2" s="236"/>
-      <c r="AH2" s="236"/>
+      <c r="AF2" s="235"/>
+      <c r="AG2" s="235"/>
+      <c r="AH2" s="235"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4951,10 +4918,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="237" t="s">
+      <c r="J17" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="240" t="s">
+      <c r="K17" s="239" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -5054,8 +5021,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="238"/>
-      <c r="K18" s="241"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="240"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -5153,8 +5120,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="238"/>
-      <c r="K19" s="241"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="240"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -5234,8 +5201,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="241"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="240"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -5316,8 +5283,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="241"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="240"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -5398,8 +5365,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="238"/>
-      <c r="K22" s="241"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="240"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -5480,8 +5447,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="241"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="240"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -5562,8 +5529,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="241"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="240"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -5584,8 +5551,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="241"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="240"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -5594,14 +5561,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="241"/>
-      <c r="N26" s="243" t="s">
+      <c r="J26" s="237"/>
+      <c r="K26" s="240"/>
+      <c r="N26" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="244"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="245"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="244"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -5677,14 +5644,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="241"/>
-      <c r="N27" s="243" t="s">
+      <c r="J27" s="237"/>
+      <c r="K27" s="240"/>
+      <c r="N27" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="244"/>
-      <c r="P27" s="244"/>
-      <c r="Q27" s="245"/>
+      <c r="O27" s="243"/>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="244"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -5760,8 +5727,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="241"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="240"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -5773,24 +5740,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="241"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="238"/>
-      <c r="K30" s="241"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="238"/>
-      <c r="K31" s="241"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="238"/>
-      <c r="K32" s="241"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="239"/>
-      <c r="K33" s="242"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="241"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="165"/>
@@ -6009,7 +5976,7 @@
       <c r="A1" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="232">
+      <c r="B1" s="231">
         <f>1.957*10^(-9)*3600*0.7</f>
         <v>4.9316400000000006E-6</v>
       </c>
@@ -6100,7 +6067,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6109,7 +6076,7 @@
       <c r="A1" s="182" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="233">
+      <c r="B1" s="232">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C1" s="155" t="s">
@@ -6186,7 +6153,7 @@
       <c r="A8" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="234">
+      <c r="B8" s="233">
         <v>0.5</v>
       </c>
       <c r="C8" s="172" t="s">
@@ -6202,7 +6169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6470,26 +6437,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="89"/>
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="245" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="246" t="s">
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="247"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="246" t="s">
+      <c r="F1" s="246"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="247"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="247" t="s">
+      <c r="I1" s="246"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="247"/>
-      <c r="M1" s="248"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="247"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
@@ -7584,7 +7551,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7660,8 +7627,8 @@
         <v>89</v>
       </c>
       <c r="B4" s="181">
-        <f>(1)/(32*1000)</f>
-        <v>3.1250000000000001E-5</v>
+        <f>(6)/(32*1000)</f>
+        <v>1.875E-4</v>
       </c>
       <c r="C4" s="176" t="s">
         <v>95</v>
@@ -8851,7 +8818,7 @@
       <c r="A8" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="235">
+      <c r="B8" s="234">
         <v>7.7</v>
       </c>
       <c r="C8" s="146" t="s">
@@ -8864,7 +8831,7 @@
       <c r="A9" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="235">
+      <c r="B9" s="234">
         <v>4</v>
       </c>
       <c r="C9" s="146" t="s">
@@ -8911,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8926,8 +8893,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="227">
-        <f>B3/B5</f>
-        <v>255.00000000000003</v>
+        <v>257</v>
       </c>
       <c r="C1" s="155" t="s">
         <v>114</v>
@@ -8940,8 +8906,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="228">
-        <f>B4/B6</f>
-        <v>255.00000000000003</v>
+        <v>257</v>
       </c>
       <c r="C2" s="157" t="s">
         <v>114</v>
@@ -8954,8 +8919,8 @@
         <v>132</v>
       </c>
       <c r="B3" s="229">
-        <f>([1]Bacteria!B6+2*B8+10*10^(-6))</f>
-        <v>1.0200000000000001E-3</v>
+        <f>B5*B1</f>
+        <v>1.0280000000000001E-3</v>
       </c>
       <c r="C3" s="157" t="s">
         <v>106</v>
@@ -8968,8 +8933,8 @@
         <v>133</v>
       </c>
       <c r="B4" s="229">
-        <f>([1]Bacteria!B6+2*B8+10*10^(-6))</f>
-        <v>1.0200000000000001E-3</v>
+        <f>B6*B2</f>
+        <v>1.0280000000000001E-3</v>
       </c>
       <c r="C4" s="157" t="s">
         <v>106</v>
@@ -9038,8 +9003,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="230">
-        <f>400*24</f>
-        <v>9600</v>
+        <v>2500</v>
       </c>
       <c r="C9" s="157" t="s">
         <v>127</v>
@@ -9052,7 +9016,7 @@
         <v>139</v>
       </c>
       <c r="B10" s="229">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-8</v>
       </c>
       <c r="C10" s="157" t="s">
         <v>127</v>
@@ -9064,8 +9028,8 @@
       <c r="A11" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="229">
-        <v>1</v>
+      <c r="B11" s="249">
+        <v>0.5</v>
       </c>
       <c r="C11" s="157" t="s">
         <v>127</v>
@@ -9077,8 +9041,8 @@
       <c r="A12" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="229">
-        <v>1</v>
+      <c r="B12" s="249">
+        <v>0.5</v>
       </c>
       <c r="C12" s="157" t="s">
         <v>127</v>
@@ -9090,9 +9054,8 @@
       <c r="A13" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="231">
-        <f>4*24</f>
-        <v>96</v>
+      <c r="B13" s="250">
+        <v>24</v>
       </c>
       <c r="C13" s="172" t="s">
         <v>127</v>
@@ -9101,9 +9064,16 @@
       <c r="E13" s="89"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
+      <c r="A14" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="192">
+        <f>24*7</f>
+        <v>168</v>
+      </c>
+      <c r="C14" s="248" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" s="89"/>
       <c r="E14" s="91"/>
     </row>

--- a/AOBNOBAMX.xlsx
+++ b/AOBNOBAMX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bestanden\Cloud Storage\Uni\Master Thesis\version_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E7745-35F6-4A83-A224-CBFD2E2198FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9E327-406D-4C63-827F-A4E3B7E3FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="18" r:id="rId1"/>
@@ -25,14 +25,12 @@
     <sheet name="Diffusion" sheetId="28" r:id="rId10"/>
     <sheet name="Tolerances" sheetId="29" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -53,52 +51,88 @@
   <commentList>
     <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     AOB and NOB: calculated [Rebeca]</t>
+        </r>
       </text>
     </comment>
     <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     FNA (HNO2) [Jubany2008]</t>
+        </r>
       </text>
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     FA (NH3) [Kim2008, Blackburne2007a]</t>
+        </r>
       </text>
     </comment>
     <comment ref="E4" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     FA (NH3) [Kim2008, Blackburne2007a]</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     From [Straka2019]
 Reply:
     Assume NH3 and HNO2 uptake</t>
+        </r>
       </text>
     </comment>
     <comment ref="H5" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     From [Strous1998]</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2569,6 +2603,15 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,15 +2650,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3407,65 +3441,65 @@
       <selection activeCell="I3" sqref="I3:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="4.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="12.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="12.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="12.5546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.88671875" style="1"/>
-    <col min="37" max="37" width="14.88671875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="12.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.85546875" style="1"/>
+    <col min="37" max="37" width="14.85546875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235" t="s">
+    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235" t="s">
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="235"/>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235" t="s">
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="235"/>
-      <c r="AG2" s="235"/>
-      <c r="AH2" s="235"/>
+      <c r="AF2" s="238"/>
+      <c r="AG2" s="238"/>
+      <c r="AH2" s="238"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3688,7 +3722,7 @@
       <c r="AM4" s="19"/>
       <c r="AN4" s="19"/>
     </row>
-    <row r="5" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>33</v>
       </c>
@@ -3811,7 +3845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
@@ -3935,7 +3969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
@@ -4050,7 +4084,7 @@
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
     </row>
-    <row r="8" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
@@ -4162,7 +4196,7 @@
       </c>
       <c r="AJ8" s="170"/>
     </row>
-    <row r="9" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="I9" s="35" t="s">
         <v>45</v>
       </c>
@@ -4252,7 +4286,7 @@
       </c>
       <c r="AJ9" s="170"/>
     </row>
-    <row r="10" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
@@ -4337,7 +4371,7 @@
       </c>
       <c r="AJ10" s="170"/>
     </row>
-    <row r="11" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I11" s="35" t="s">
         <v>47</v>
       </c>
@@ -4423,7 +4457,7 @@
       </c>
       <c r="AJ11" s="170"/>
     </row>
-    <row r="12" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I12" s="35" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4543,7 @@
       </c>
       <c r="AJ12" s="170"/>
     </row>
-    <row r="13" spans="2:40" ht="20.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:40" ht="21.75" x14ac:dyDescent="0.35">
       <c r="B13" s="61" t="s">
         <v>49</v>
       </c>
@@ -4605,7 +4639,7 @@
       </c>
       <c r="AJ13" s="170"/>
     </row>
-    <row r="14" spans="2:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="E14" s="34"/>
       <c r="I14" s="29" t="s">
@@ -4695,7 +4729,7 @@
       </c>
       <c r="AJ14" s="170"/>
     </row>
-    <row r="15" spans="2:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="E15" s="34"/>
       <c r="I15" s="29" t="s">
@@ -4787,7 +4821,7 @@
       </c>
       <c r="AJ15" s="170"/>
     </row>
-    <row r="16" spans="2:40" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:40" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -4895,7 +4929,7 @@
       </c>
       <c r="AJ16" s="170"/>
     </row>
-    <row r="17" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -4918,10 +4952,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="236" t="s">
+      <c r="J17" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="239" t="s">
+      <c r="K17" s="242" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -4997,7 +5031,7 @@
       </c>
       <c r="AJ17" s="27"/>
     </row>
-    <row r="18" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>1</v>
       </c>
@@ -5021,8 +5055,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="237"/>
-      <c r="K18" s="240"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="243"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -5096,7 +5130,7 @@
       </c>
       <c r="AJ18" s="27"/>
     </row>
-    <row r="19" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>58</v>
       </c>
@@ -5120,8 +5154,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="237"/>
-      <c r="K19" s="240"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="243"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -5195,14 +5229,14 @@
       </c>
       <c r="AJ19" s="27"/>
     </row>
-    <row r="20" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="240"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="243"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -5276,15 +5310,15 @@
       </c>
       <c r="AJ20" s="27"/>
     </row>
-    <row r="21" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="240"/>
+      <c r="J21" s="240"/>
+      <c r="K21" s="243"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -5358,15 +5392,15 @@
       </c>
       <c r="AJ21" s="27"/>
     </row>
-    <row r="22" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="240"/>
+      <c r="J22" s="240"/>
+      <c r="K22" s="243"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -5440,15 +5474,15 @@
       </c>
       <c r="AJ22" s="27"/>
     </row>
-    <row r="23" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="240"/>
+      <c r="J23" s="240"/>
+      <c r="K23" s="243"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -5522,15 +5556,15 @@
       </c>
       <c r="AJ23" s="27"/>
     </row>
-    <row r="24" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="240"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="243"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -5544,31 +5578,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="240"/>
-    </row>
-    <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J25" s="240"/>
+      <c r="K25" s="243"/>
+    </row>
+    <row r="26" spans="2:36" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="240"/>
-      <c r="N26" s="242" t="s">
+      <c r="J26" s="240"/>
+      <c r="K26" s="243"/>
+      <c r="N26" s="245" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="243"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="244"/>
+      <c r="O26" s="246"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="247"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -5637,21 +5671,21 @@
         <v>263.94800000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="240"/>
-      <c r="N27" s="242" t="s">
+      <c r="J27" s="240"/>
+      <c r="K27" s="243"/>
+      <c r="N27" s="245" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="243"/>
-      <c r="P27" s="243"/>
-      <c r="Q27" s="244"/>
+      <c r="O27" s="246"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="247"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -5720,46 +5754,46 @@
         <v>303.90184335522252</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="240"/>
+      <c r="J28" s="240"/>
+      <c r="K28" s="243"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="240"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="237"/>
-      <c r="K30" s="240"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="237"/>
-      <c r="K31" s="240"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="237"/>
-      <c r="K32" s="240"/>
-    </row>
-    <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="238"/>
-      <c r="K33" s="241"/>
-    </row>
-    <row r="34" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J29" s="240"/>
+      <c r="K29" s="243"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J30" s="240"/>
+      <c r="K30" s="243"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J31" s="240"/>
+      <c r="K31" s="243"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J32" s="240"/>
+      <c r="K32" s="243"/>
+    </row>
+    <row r="33" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="241"/>
+      <c r="K33" s="244"/>
+    </row>
+    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U34" s="165"/>
       <c r="V34" s="75">
         <v>10</v>
@@ -5773,7 +5807,7 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U35" s="166" t="s">
         <v>68</v>
       </c>
@@ -5792,7 +5826,7 @@
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U36" s="167" t="s">
         <v>69</v>
       </c>
@@ -5811,7 +5845,7 @@
       <c r="Y36"/>
       <c r="Z36"/>
     </row>
-    <row r="37" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U37" s="166" t="s">
         <v>70</v>
       </c>
@@ -5830,7 +5864,7 @@
       <c r="Y37"/>
       <c r="Z37"/>
     </row>
-    <row r="38" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U38" s="168" t="s">
         <v>71</v>
       </c>
@@ -5849,7 +5883,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -5961,18 +5995,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="62"/>
+    <col min="1" max="1" width="9.140625" style="62"/>
     <col min="2" max="2" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="62"/>
-    <col min="5" max="5" width="12.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="62"/>
-    <col min="7" max="7" width="11.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="62"/>
+    <col min="3" max="4" width="9.140625" style="62"/>
+    <col min="5" max="5" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="62"/>
+    <col min="7" max="7" width="11.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
         <v>143</v>
       </c>
@@ -5984,7 +6018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>145</v>
       </c>
@@ -5996,7 +6030,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>146</v>
       </c>
@@ -6008,7 +6042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="124" t="s">
         <v>147</v>
       </c>
@@ -6020,7 +6054,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="124" t="s">
         <v>148</v>
       </c>
@@ -6032,7 +6066,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="124" t="s">
         <v>149</v>
       </c>
@@ -6044,7 +6078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="139" t="s">
         <v>150</v>
       </c>
@@ -6070,9 +6104,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="182" t="s">
         <v>151</v>
       </c>
@@ -6083,7 +6117,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="183" t="s">
         <v>153</v>
       </c>
@@ -6094,7 +6128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="183" t="s">
         <v>155</v>
       </c>
@@ -6105,7 +6139,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="183" t="s">
         <v>156</v>
       </c>
@@ -6116,7 +6150,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="183" t="s">
         <v>157</v>
       </c>
@@ -6127,7 +6161,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="183" t="s">
         <v>158</v>
       </c>
@@ -6138,7 +6172,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="183" t="s">
         <v>159</v>
       </c>
@@ -6149,7 +6183,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="184" t="s">
         <v>160</v>
       </c>
@@ -6173,14 +6207,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="70" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="70" customWidth="1"/>
     <col min="2" max="5" width="12" style="74" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="70"/>
+    <col min="6" max="16384" width="11.42578125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="71" t="s">
         <v>72</v>
       </c>
@@ -6206,7 +6240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="207" t="s">
         <v>79</v>
       </c>
@@ -6239,7 +6273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="207" t="s">
         <v>81</v>
       </c>
@@ -6271,7 +6305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="207" t="s">
         <v>83</v>
       </c>
@@ -6303,7 +6337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="207" t="s">
         <v>84</v>
       </c>
@@ -6336,7 +6370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="89"/>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
@@ -6348,7 +6382,7 @@
       <c r="I7" s="89"/>
       <c r="K7" s="89"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="89"/>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
@@ -6359,7 +6393,7 @@
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -6370,7 +6404,7 @@
       <c r="H9" s="89"/>
       <c r="I9" s="89"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="89"/>
@@ -6381,7 +6415,7 @@
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="89"/>
       <c r="B11" s="89"/>
       <c r="C11" s="89"/>
@@ -6392,7 +6426,7 @@
       <c r="H11" s="89"/>
       <c r="I11" s="89"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="89"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -6421,44 +6455,44 @@
       <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="62" customWidth="1"/>
     <col min="3" max="3" width="13" style="62" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="62" customWidth="1"/>
     <col min="6" max="6" width="14" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="62" customWidth="1"/>
     <col min="8" max="8" width="13" style="62" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="62" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="62"/>
+    <col min="9" max="9" width="14.5703125" style="62" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="89"/>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="246"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="245" t="s">
+      <c r="C1" s="249"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="248" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="245" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="246"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="246" t="s">
+      <c r="I1" s="249"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="246"/>
-      <c r="M1" s="247"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="249"/>
+      <c r="M1" s="250"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="89"/>
       <c r="B2" s="63" t="s">
         <v>85</v>
@@ -6497,7 +6531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
         <v>80</v>
       </c>
@@ -6538,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="82" t="s">
         <v>82</v>
       </c>
@@ -6579,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
         <v>88</v>
       </c>
@@ -6620,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
         <v>89</v>
       </c>
@@ -6661,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
         <v>90</v>
       </c>
@@ -6702,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
         <v>91</v>
       </c>
@@ -6743,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>92</v>
       </c>
@@ -6784,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="221" t="s">
         <v>93</v>
       </c>
@@ -6825,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>94</v>
       </c>
@@ -6866,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
         <v>18</v>
       </c>
@@ -6907,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
         <v>79</v>
       </c>
@@ -6948,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
         <v>81</v>
       </c>
@@ -6989,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
         <v>83</v>
       </c>
@@ -7030,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="221" t="s">
         <v>84</v>
       </c>
@@ -7316,17 +7350,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="62"/>
-    <col min="3" max="3" width="7.5546875" style="62" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="62"/>
+    <col min="3" max="3" width="7.5703125" style="62" customWidth="1"/>
     <col min="4" max="4" width="3" style="62" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="62"/>
+    <col min="5" max="6" width="11.42578125" style="62"/>
     <col min="7" max="7" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="62"/>
+    <col min="8" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
         <v>80</v>
       </c>
@@ -7343,7 +7377,7 @@
       <c r="F1" s="89"/>
       <c r="G1" s="89"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>82</v>
       </c>
@@ -7360,7 +7394,7 @@
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
         <v>88</v>
       </c>
@@ -7377,7 +7411,7 @@
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="82" t="s">
         <v>89</v>
       </c>
@@ -7394,7 +7428,7 @@
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
         <v>90</v>
       </c>
@@ -7411,7 +7445,7 @@
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
         <v>91</v>
       </c>
@@ -7429,7 +7463,7 @@
       <c r="F6" s="89"/>
       <c r="G6" s="89"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
         <v>92</v>
       </c>
@@ -7446,7 +7480,7 @@
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="206" t="s">
         <v>93</v>
       </c>
@@ -7463,7 +7497,7 @@
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
         <v>79</v>
       </c>
@@ -7480,7 +7514,7 @@
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="s">
         <v>81</v>
       </c>
@@ -7497,7 +7531,7 @@
       <c r="F10" s="89"/>
       <c r="G10" s="89"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
         <v>83</v>
       </c>
@@ -7514,7 +7548,7 @@
       <c r="F11" s="89"/>
       <c r="G11" s="89"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="69" t="s">
         <v>84</v>
       </c>
@@ -7531,7 +7565,7 @@
       <c r="F12" s="89"/>
       <c r="G12" s="89"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="89"/>
       <c r="B14" s="89"/>
       <c r="C14" s="89"/>
@@ -7554,14 +7588,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="62"/>
-    <col min="4" max="4" width="4.44140625" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="3" width="9.140625" style="62"/>
+    <col min="4" max="4" width="4.42578125" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>80</v>
       </c>
@@ -7582,7 +7616,7 @@
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
         <v>82</v>
       </c>
@@ -7602,7 +7636,7 @@
       <c r="I2" s="89"/>
       <c r="J2" s="89"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
         <v>88</v>
       </c>
@@ -7622,7 +7656,7 @@
       <c r="I3" s="89"/>
       <c r="J3" s="89"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>89</v>
       </c>
@@ -7643,7 +7677,7 @@
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>90</v>
       </c>
@@ -7663,7 +7697,7 @@
       <c r="I5" s="89"/>
       <c r="J5" s="89"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="210" t="s">
         <v>91</v>
       </c>
@@ -7684,7 +7718,7 @@
       <c r="I6" s="89"/>
       <c r="J6" s="89"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="207" t="s">
         <v>92</v>
       </c>
@@ -7705,7 +7739,7 @@
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="89"/>
       <c r="B13" s="89"/>
       <c r="C13" s="89"/>
@@ -7717,7 +7751,7 @@
       <c r="I13" s="89"/>
       <c r="J13" s="91"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="89"/>
       <c r="C16" s="89"/>
@@ -7743,15 +7777,15 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" style="142"/>
-    <col min="7" max="7" width="2.88671875" style="96" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="97" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="142"/>
+    <col min="7" max="7" width="2.85546875" style="96" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>100</v>
       </c>
@@ -7771,7 +7805,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="98" t="s">
         <v>80</v>
       </c>
@@ -7797,7 +7831,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="103" t="s">
         <v>82</v>
       </c>
@@ -7823,7 +7857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
         <v>88</v>
       </c>
@@ -7849,7 +7883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
         <v>89</v>
       </c>
@@ -7875,7 +7909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="103" t="s">
         <v>90</v>
       </c>
@@ -7901,7 +7935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="202" t="s">
         <v>91</v>
       </c>
@@ -7927,7 +7961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="200" t="s">
         <v>92</v>
       </c>
@@ -7954,7 +7988,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="185" t="s">
         <v>93</v>
       </c>
@@ -7980,7 +8014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
         <v>94</v>
       </c>
@@ -8006,7 +8040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="113" t="s">
         <v>18</v>
       </c>
@@ -8032,7 +8066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="119" t="s">
         <v>79</v>
       </c>
@@ -8058,7 +8092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124" t="s">
         <v>81</v>
       </c>
@@ -8084,7 +8118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124" t="s">
         <v>83</v>
       </c>
@@ -8110,7 +8144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="96" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="124" t="s">
         <v>84</v>
       </c>
@@ -8136,7 +8170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="98" t="s">
         <v>80</v>
       </c>
@@ -8157,7 +8191,7 @@
       </c>
       <c r="H16" s="97"/>
     </row>
-    <row r="17" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="103" t="s">
         <v>82</v>
       </c>
@@ -8178,7 +8212,7 @@
       </c>
       <c r="H17" s="97"/>
     </row>
-    <row r="18" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="103" t="s">
         <v>88</v>
       </c>
@@ -8199,7 +8233,7 @@
       </c>
       <c r="H18" s="97"/>
     </row>
-    <row r="19" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="103" t="s">
         <v>89</v>
       </c>
@@ -8220,7 +8254,7 @@
       </c>
       <c r="H19" s="97"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="103" t="s">
         <v>90</v>
       </c>
@@ -8241,7 +8275,7 @@
       </c>
       <c r="I20" s="96"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="202" t="s">
         <v>91</v>
       </c>
@@ -8262,7 +8296,7 @@
       </c>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="200" t="s">
         <v>92</v>
       </c>
@@ -8284,7 +8318,7 @@
       <c r="H22" s="96"/>
       <c r="I22" s="96"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="185" t="s">
         <v>93</v>
       </c>
@@ -8306,7 +8340,7 @@
       <c r="H23" s="96"/>
       <c r="I23" s="96"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="111" t="s">
         <v>94</v>
       </c>
@@ -8328,7 +8362,7 @@
       <c r="H24" s="96"/>
       <c r="I24" s="96"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="113" t="s">
         <v>18</v>
       </c>
@@ -8349,7 +8383,7 @@
       </c>
       <c r="H25" s="96"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="119" t="s">
         <v>79</v>
       </c>
@@ -8370,7 +8404,7 @@
       </c>
       <c r="H26" s="96"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="124" t="s">
         <v>81</v>
       </c>
@@ -8391,7 +8425,7 @@
       </c>
       <c r="H27" s="96"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="124" t="s">
         <v>83</v>
       </c>
@@ -8412,7 +8446,7 @@
       </c>
       <c r="H28" s="96"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="139" t="s">
         <v>84</v>
       </c>
@@ -8433,7 +8467,7 @@
       </c>
       <c r="H29" s="96"/>
     </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="97"/>
@@ -8441,7 +8475,7 @@
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
     </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
@@ -8519,16 +8553,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="62"/>
-    <col min="4" max="5" width="12.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="1" width="14.85546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="62"/>
+    <col min="4" max="5" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="143" t="s">
         <v>103</v>
       </c>
@@ -8541,7 +8575,7 @@
       </c>
       <c r="D1" s="89"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="145" t="s">
         <v>104</v>
       </c>
@@ -8554,7 +8588,7 @@
       </c>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="145" t="s">
         <v>105</v>
       </c>
@@ -8567,7 +8601,7 @@
       </c>
       <c r="D3" s="223"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="145" t="s">
         <v>107</v>
       </c>
@@ -8580,7 +8614,7 @@
       </c>
       <c r="D4" s="89"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="145" t="s">
         <v>109</v>
       </c>
@@ -8592,7 +8626,7 @@
       </c>
       <c r="D5" s="89"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="145" t="s">
         <v>111</v>
       </c>
@@ -8605,7 +8639,7 @@
       </c>
       <c r="D6" s="89"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="145" t="s">
         <v>112</v>
       </c>
@@ -8618,7 +8652,7 @@
       </c>
       <c r="D7" s="89"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="145" t="s">
         <v>113</v>
       </c>
@@ -8631,7 +8665,7 @@
       </c>
       <c r="D8" s="89"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>115</v>
       </c>
@@ -8643,7 +8677,7 @@
       </c>
       <c r="D9" s="89"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
         <v>116</v>
       </c>
@@ -8656,7 +8690,7 @@
       </c>
       <c r="D10" s="89"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="147" t="s">
         <v>117</v>
       </c>
@@ -8669,29 +8703,29 @@
       </c>
       <c r="D11" s="89"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="89"/>
       <c r="B15" s="222"/>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="223"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="223"/>
       <c r="D18" s="89"/>
       <c r="E18" s="89"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="89"/>
       <c r="D19" s="223"/>
       <c r="E19" s="89"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="223"/>
@@ -8710,15 +8744,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="62"/>
-    <col min="3" max="3" width="12.109375" style="62" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="62"/>
+    <col min="1" max="1" width="10.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="62"/>
+    <col min="3" max="3" width="12.140625" style="62" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
         <v>118</v>
       </c>
@@ -8732,7 +8766,7 @@
       <c r="D1" s="89"/>
       <c r="E1" s="89"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="151" t="s">
         <v>40</v>
       </c>
@@ -8746,7 +8780,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="151" t="s">
         <v>119</v>
       </c>
@@ -8760,7 +8794,7 @@
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="151" t="s">
         <v>120</v>
       </c>
@@ -8773,7 +8807,7 @@
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="151" t="s">
         <v>21</v>
       </c>
@@ -8786,7 +8820,7 @@
       <c r="D5" s="89"/>
       <c r="E5" s="89"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="151" t="s">
         <v>122</v>
       </c>
@@ -8800,7 +8834,7 @@
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="151" t="s">
         <v>124</v>
       </c>
@@ -8814,7 +8848,7 @@
       <c r="D7" s="223"/>
       <c r="E7" s="89"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="151" t="s">
         <v>125</v>
       </c>
@@ -8827,7 +8861,7 @@
       <c r="D8" s="89"/>
       <c r="E8" s="89"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="151" t="s">
         <v>126</v>
       </c>
@@ -8840,7 +8874,7 @@
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="152" t="s">
         <v>128</v>
       </c>
@@ -8854,18 +8888,18 @@
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="89"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
       <c r="E16" s="223"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="223"/>
       <c r="D17" s="89"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="89"/>
       <c r="D18" s="223"/>
     </row>
@@ -8879,16 +8913,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="62" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="1" width="15.42578125" style="62" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
         <v>130</v>
       </c>
@@ -8901,7 +8935,7 @@
       <c r="D1" s="89"/>
       <c r="E1" s="89"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="156" t="s">
         <v>131</v>
       </c>
@@ -8914,7 +8948,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="156" t="s">
         <v>132</v>
       </c>
@@ -8928,7 +8962,7 @@
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="156" t="s">
         <v>133</v>
       </c>
@@ -8942,7 +8976,7 @@
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
         <v>134</v>
       </c>
@@ -8956,7 +8990,7 @@
       <c r="D5" s="89"/>
       <c r="E5" s="89"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
         <v>135</v>
       </c>
@@ -8970,7 +9004,7 @@
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
         <v>136</v>
       </c>
@@ -8984,7 +9018,7 @@
       <c r="D7" s="89"/>
       <c r="E7" s="223"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="156" t="s">
         <v>137</v>
       </c>
@@ -8998,12 +9032,12 @@
       <c r="D8" s="89"/>
       <c r="E8" s="89"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="156" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="230">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="157" t="s">
         <v>127</v>
@@ -9011,7 +9045,7 @@
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="156" t="s">
         <v>139</v>
       </c>
@@ -9024,11 +9058,11 @@
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="249">
+      <c r="B11" s="236">
         <v>0.5</v>
       </c>
       <c r="C11" s="157" t="s">
@@ -9037,11 +9071,11 @@
       <c r="D11" s="89"/>
       <c r="E11" s="223"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="249">
+      <c r="B12" s="236">
         <v>0.5</v>
       </c>
       <c r="C12" s="157" t="s">
@@ -9050,11 +9084,11 @@
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
     </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="250">
+      <c r="B13" s="237">
         <v>24</v>
       </c>
       <c r="C13" s="172" t="s">
@@ -9063,7 +9097,7 @@
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="156" t="s">
         <v>161</v>
       </c>
@@ -9071,17 +9105,17 @@
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="C14" s="248" t="s">
+      <c r="C14" s="235" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="89"/>
       <c r="E14" s="91"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="223"/>
       <c r="E18" s="223"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="89"/>
       <c r="E26" s="223"/>
     </row>
